--- a/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC31_Verify_PlaceOrder_WithMultiple_Items.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC31_Verify_PlaceOrder_WithMultiple_Items.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_Muitisite\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00077FA7-9FBD-4812-B018-54B540C18F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC31_Verify_PlaceOrder_MulItem" sheetId="1" r:id="rId1"/>
@@ -254,9 +260,6 @@
     <t>4111111111111111</t>
   </si>
   <si>
-    <t>Your Order has been Placed!</t>
-  </si>
-  <si>
     <t>PLPAddtocart3</t>
   </si>
   <si>
@@ -267,12 +270,15 @@
   </si>
   <si>
     <t>CheckoutButton</t>
+  </si>
+  <si>
+    <t>Your Order has been Placed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,13 +376,16 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -425,7 +434,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -458,9 +467,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -493,6 +519,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -668,11 +711,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +746,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -882,7 +925,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>9</v>
@@ -941,7 +984,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>9</v>
@@ -950,92 +993,86 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
-      <c r="B23" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="B23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
-      <c r="B24" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="B24" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>9</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
@@ -1043,13 +1080,13 @@
         <v>30</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1058,13 +1095,13 @@
         <v>30</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1073,169 +1110,171 @@
         <v>30</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>9</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>9</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="11" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="11" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
+      <c r="D43" s="11"/>
       <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>9</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
       <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="11" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>62</v>
@@ -1243,27 +1282,27 @@
       <c r="D45" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="10" t="s">
-        <v>62</v>
-      </c>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="11" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="10"/>
+      <c r="E46" s="10" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="11" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>63</v>
@@ -1271,27 +1310,27 @@
       <c r="D47" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="E47" s="10"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="11" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="10"/>
+      <c r="E48" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="11" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>64</v>
@@ -1299,27 +1338,27 @@
       <c r="D49" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>64</v>
-      </c>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="11" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="10"/>
+      <c r="E50" s="10" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="11" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>65</v>
@@ -1327,27 +1366,27 @@
       <c r="D51" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="11" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="10"/>
+      <c r="E52" s="10" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="11" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>66</v>
@@ -1355,23 +1394,27 @@
       <c r="D53" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="10" t="s">
-        <v>66</v>
-      </c>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="11" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -1526,11 +1569,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,7 +1851,7 @@
         <v>72</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1821,7 +1864,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC31_Verify_PlaceOrder_WithMultiple_Items.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC31_Verify_PlaceOrder_WithMultiple_Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_Muitisite\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00077FA7-9FBD-4812-B018-54B540C18F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B34A7AB-43EF-43BF-B839-64FD4EE2DB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -715,7 +715,7 @@
   <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,8 +1483,8 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
-      <c r="B61" s="11" t="s">
-        <v>29</v>
+      <c r="B61" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="11"/>
